--- a/ThesisMainProject/Study3ThinkAloud/ThinkAloudCodingData.xlsx
+++ b/ThesisMainProject/Study3ThinkAloud/ThinkAloudCodingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srirajaiyer/Documents/ThesisMainProject/Study3ThinkAloud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srirajaiyer/Documents/GitHub/ThesisMainProject/ThesisMainProject/Study3ThinkAloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681EE5B-B8D3-6546-9326-ABB8EB2E9166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350C60A-078A-084D-AE32-720B92018D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="500" windowWidth="22940" windowHeight="14640" xr2:uid="{46D06876-3836-8B47-9025-6CFB929392B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{46D06876-3836-8B47-9025-6CFB929392B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -187,6 +187,39 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>2nd Coding</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI </t>
+  </si>
+  <si>
+    <t>SI/PR</t>
+  </si>
+  <si>
+    <t>HD!</t>
+  </si>
+  <si>
+    <t>PR/HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR </t>
+  </si>
+  <si>
+    <t>2nd Correct</t>
+  </si>
+  <si>
+    <t>2nd DEs</t>
+  </si>
+  <si>
+    <t>DESum</t>
+  </si>
 </sst>
 </file>
 
@@ -201,15 +234,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,17 +268,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -537,18 +618,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8242B70-93ED-DD49-9C3E-DAEE00E40A5C}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +644,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E1" t="s">
@@ -570,7 +656,7 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I1" t="s">
@@ -591,8 +677,26 @@
       <c r="N1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -602,7 +706,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2">
@@ -614,7 +718,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I2">
@@ -635,8 +739,43 @@
       <c r="N2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="b">
+        <f>O2=H2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <f>D2=S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <f>SUM(J2:N2)</f>
+        <v>11</v>
+      </c>
+      <c r="X2" t="b">
+        <f>V2=I2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" t="b">
+        <f>V2=W2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -646,7 +785,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
@@ -658,7 +797,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I3">
@@ -679,8 +818,37 @@
       <c r="N3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="b">
+        <f t="shared" ref="P3:P66" si="0">O3=H3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <f t="shared" ref="T3:T66" si="1">D3=S3</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="2">SUM(J3:N3)</f>
+        <v>12</v>
+      </c>
+      <c r="X3" t="b">
+        <f>V3=I3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <f t="shared" ref="Y3:Y66" si="3">V3=W3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -690,7 +858,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -702,7 +870,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I4">
@@ -723,8 +891,43 @@
       <c r="N4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X4" t="b">
+        <f>V4=I4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -734,7 +937,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5">
@@ -746,7 +949,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I5">
@@ -767,8 +970,40 @@
       <c r="N5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X5" t="b">
+        <f>V5=I5</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -778,7 +1013,7 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6">
@@ -790,7 +1025,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I6">
@@ -811,8 +1046,37 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X6" t="b">
+        <f>V6=I6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -822,7 +1086,7 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7">
@@ -834,7 +1098,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I7">
@@ -855,8 +1119,37 @@
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X7" t="b">
+        <f>V7=I7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -866,7 +1159,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8">
@@ -878,7 +1171,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I8">
@@ -899,8 +1192,37 @@
       <c r="N8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X8" t="b">
+        <f>V8=I8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -910,7 +1232,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9">
@@ -922,7 +1244,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I9">
@@ -943,8 +1265,37 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X9" t="b">
+        <f>V9=I9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -954,7 +1305,7 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10">
@@ -966,7 +1317,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I10">
@@ -987,8 +1338,37 @@
       <c r="N10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X10" t="b">
+        <f>V10=I10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1378,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11">
@@ -1010,7 +1390,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I11">
@@ -1031,8 +1411,40 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X11" t="b">
+        <f>V11=I11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1454,7 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12">
@@ -1054,7 +1466,7 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I12">
@@ -1075,8 +1487,43 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X12" t="b">
+        <f>V12=I12</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1533,7 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13">
@@ -1098,7 +1545,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I13">
@@ -1119,8 +1566,37 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X13" t="b">
+        <f>V13=I13</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1606,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14">
@@ -1142,7 +1618,7 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I14">
@@ -1163,8 +1639,40 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X14" t="b">
+        <f>V14=I14</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1682,7 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15">
@@ -1186,7 +1694,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I15">
@@ -1207,8 +1715,43 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X15" t="b">
+        <f>V15=I15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1218,7 +1761,7 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16">
@@ -1230,7 +1773,7 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I16">
@@ -1251,8 +1794,46 @@
       <c r="N16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>8</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X16" t="b">
+        <f>V16=I16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1843,7 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17">
@@ -1274,7 +1855,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I17">
@@ -1295,8 +1876,37 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X17" t="b">
+        <f>V17=I17</f>
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1916,7 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18">
@@ -1318,7 +1928,7 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I18">
@@ -1339,8 +1949,37 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="X18" t="b">
+        <f>V18=I18</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1989,7 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19">
@@ -1362,7 +2001,7 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I19">
@@ -1383,8 +2022,40 @@
       <c r="N19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>13</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X19" t="b">
+        <f>V19=I19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +2065,7 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20">
@@ -1406,7 +2077,7 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20">
@@ -1427,8 +2098,37 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X20" t="b">
+        <f>V20=I20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1438,7 +2138,7 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21">
@@ -1450,7 +2150,7 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I21">
@@ -1471,8 +2171,37 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X21" t="b">
+        <f>V21=I21</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +2211,7 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22">
@@ -1494,7 +2223,7 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I22">
@@ -1515,8 +2244,40 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>14</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X22" t="b">
+        <f>V22=I22</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +2287,7 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23">
@@ -1538,7 +2299,7 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I23">
@@ -1559,8 +2320,40 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>8</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X23" t="b">
+        <f>V23=I23</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1570,7 +2363,7 @@
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24">
@@ -1582,7 +2375,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I24">
@@ -1603,8 +2396,40 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>11</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X24" t="b">
+        <f>V24=I24</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1614,7 +2439,7 @@
       <c r="C25">
         <v>6</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25">
@@ -1626,7 +2451,7 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I25">
@@ -1647,8 +2472,46 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X25" t="b">
+        <f>V25=I25</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +2521,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26">
@@ -1670,7 +2533,7 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I26">
@@ -1691,8 +2554,37 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>19</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X26" t="b">
+        <f>V26=I26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +2594,7 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27">
@@ -1714,7 +2606,7 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I27">
@@ -1735,8 +2627,37 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X27" t="b">
+        <f>V27=I27</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +2667,7 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28">
@@ -1758,7 +2679,7 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I28">
@@ -1779,8 +2700,43 @@
       <c r="N28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>9</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X28" t="b">
+        <f>V28=I28</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +2746,7 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29">
@@ -1802,7 +2758,7 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I29">
@@ -1823,8 +2779,37 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X29" t="b">
+        <f>V29=I29</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +2819,7 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30">
@@ -1846,7 +2831,7 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I30">
@@ -1867,8 +2852,40 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1">
+        <v>11</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X30" t="b">
+        <f>V30=I30</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1878,7 +2895,7 @@
       <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31">
@@ -1890,7 +2907,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I31">
@@ -1911,8 +2928,37 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V31" s="1">
+        <v>11</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X31" t="b">
+        <f>V31=I31</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +2968,7 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32">
@@ -1934,7 +2980,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I32">
@@ -1955,8 +3001,40 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X32" t="b">
+        <f>V32=I32</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1966,7 +3044,7 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>0</v>
       </c>
       <c r="E33">
@@ -1978,7 +3056,7 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I33">
@@ -1999,8 +3077,40 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>7</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X33" t="b">
+        <f>V33=I33</f>
+        <v>1</v>
+      </c>
+      <c r="Y33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2010,7 +3120,7 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34">
@@ -2022,7 +3132,7 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I34">
@@ -2043,8 +3153,37 @@
       <c r="N34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>13</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="X34" t="b">
+        <f>V34=I34</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +3193,7 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>1</v>
       </c>
       <c r="E35">
@@ -2066,7 +3205,7 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I35">
@@ -2087,8 +3226,37 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V35" s="1">
+        <v>8</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X35" t="b">
+        <f>V35=I35</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2098,7 +3266,7 @@
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36">
@@ -2110,7 +3278,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I36">
@@ -2131,8 +3299,37 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <v>4</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X36" t="b">
+        <f>V36=I36</f>
+        <v>1</v>
+      </c>
+      <c r="Y36" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2142,7 +3339,7 @@
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37">
@@ -2154,7 +3351,7 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I37">
@@ -2175,8 +3372,37 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X37" t="b">
+        <f>V37=I37</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +3412,7 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
       <c r="E38">
@@ -2198,7 +3424,7 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I38">
@@ -2219,8 +3445,40 @@
       <c r="N38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X38" t="b">
+        <f>V38=I38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +3488,7 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
       <c r="E39">
@@ -2242,7 +3500,7 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I39">
@@ -2263,8 +3521,43 @@
       <c r="N39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>16</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X39" t="b">
+        <f>V39=I39</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +3567,7 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
       <c r="E40">
@@ -2286,7 +3579,7 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I40">
@@ -2307,8 +3600,43 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>7</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X40" t="b">
+        <f>V40=I40</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2318,7 +3646,7 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>1</v>
       </c>
       <c r="E41">
@@ -2330,7 +3658,7 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I41">
@@ -2351,8 +3679,37 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>7</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X41" t="b">
+        <f>V41=I41</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2362,7 +3719,7 @@
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42">
@@ -2374,7 +3731,7 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I42">
@@ -2395,8 +3752,37 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X42" t="b">
+        <f>V42=I42</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +3792,7 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43">
@@ -2418,7 +3804,7 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I43">
@@ -2439,8 +3825,37 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X43" t="b">
+        <f>V43=I43</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +3865,7 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>0</v>
       </c>
       <c r="E44">
@@ -2462,7 +3877,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I44">
@@ -2483,8 +3898,43 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1</v>
+      </c>
+      <c r="T44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X44" t="b">
+        <f>V44=I44</f>
+        <v>1</v>
+      </c>
+      <c r="Y44" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +3944,7 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>0</v>
       </c>
       <c r="E45">
@@ -2506,7 +3956,7 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I45">
@@ -2527,8 +3977,37 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V45" s="1">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X45" t="b">
+        <f>V45=I45</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +4017,7 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>0</v>
       </c>
       <c r="E46">
@@ -2550,7 +4029,7 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I46">
@@ -2571,8 +4050,37 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X46" t="b">
+        <f>V46=I46</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +4090,7 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>1</v>
       </c>
       <c r="E47">
@@ -2594,7 +4102,7 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I47">
@@ -2615,8 +4123,40 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X47" t="b">
+        <f>V47=I47</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +4166,7 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>0</v>
       </c>
       <c r="E48">
@@ -2638,7 +4178,7 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I48">
@@ -2659,8 +4199,40 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>48</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V48" s="1">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X48" t="b">
+        <f>V48=I48</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2670,7 +4242,7 @@
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>1</v>
       </c>
       <c r="E49">
@@ -2682,7 +4254,7 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I49">
@@ -2703,8 +4275,37 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V49" s="1">
+        <v>6</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X49" t="b">
+        <f>V49=I49</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2714,7 +4315,7 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50">
@@ -2726,7 +4327,7 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I50">
@@ -2747,8 +4348,40 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
+        <v>10</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="X50" t="b">
+        <f>V50=I50</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +4391,7 @@
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>0</v>
       </c>
       <c r="E51">
@@ -2770,7 +4403,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I51">
@@ -2791,8 +4424,46 @@
       <c r="N51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51" s="1">
+        <v>11</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X51" t="b">
+        <f>V51=I51</f>
+        <v>1</v>
+      </c>
+      <c r="Y51" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2802,7 +4473,7 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>1</v>
       </c>
       <c r="E52">
@@ -2814,7 +4485,7 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I52">
@@ -2835,8 +4506,37 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="1">
+        <v>5</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X52" t="b">
+        <f>V52=I52</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2846,7 +4546,7 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>0</v>
       </c>
       <c r="E53">
@@ -2858,7 +4558,7 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I53">
@@ -2879,8 +4579,40 @@
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>28</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V53" s="1">
+        <v>4</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X53" t="b">
+        <f>V53=I53</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2890,7 +4622,7 @@
       <c r="C54">
         <v>5</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>1</v>
       </c>
       <c r="E54">
@@ -2902,7 +4634,7 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I54">
@@ -2923,8 +4655,37 @@
       <c r="N54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V54" s="1">
+        <v>4</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X54" t="b">
+        <f>V54=I54</f>
+        <v>1</v>
+      </c>
+      <c r="Y54" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +4695,7 @@
       <c r="C55">
         <v>6</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>0</v>
       </c>
       <c r="E55">
@@ -2946,7 +4707,7 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I55">
@@ -2967,8 +4728,43 @@
       <c r="N55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+      <c r="T55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55" s="1">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X55" t="b">
+        <f>V55=I55</f>
+        <v>1</v>
+      </c>
+      <c r="Y55" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -2978,7 +4774,7 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>1</v>
       </c>
       <c r="E56">
@@ -2990,7 +4786,7 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I56">
@@ -3011,8 +4807,37 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1</v>
+      </c>
+      <c r="T56" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V56" s="1">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X56" t="b">
+        <f>V56=I56</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3022,7 +4847,7 @@
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>0</v>
       </c>
       <c r="E57">
@@ -3034,7 +4859,7 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I57">
@@ -3055,8 +4880,43 @@
       <c r="N57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57" s="1">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X57" t="b">
+        <f>V57=I57</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3066,7 +4926,7 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58">
@@ -3078,7 +4938,7 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I58">
@@ -3099,8 +4959,37 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="1">
+        <v>12</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X58" t="b">
+        <f>V58=I58</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +4999,7 @@
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>0</v>
       </c>
       <c r="E59">
@@ -3122,7 +5011,7 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I59">
@@ -3143,8 +5032,46 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>55</v>
+      </c>
+      <c r="R59" t="s">
+        <v>55</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59" s="1">
+        <v>6</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X59" t="b">
+        <f>V59=I59</f>
+        <v>1</v>
+      </c>
+      <c r="Y59" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3154,7 +5081,7 @@
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60">
@@ -3166,7 +5093,7 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I60">
@@ -3187,8 +5114,37 @@
       <c r="N60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S60" s="2">
+        <v>1</v>
+      </c>
+      <c r="T60" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V60" s="1">
+        <v>6</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X60" t="b">
+        <f>V60=I60</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3198,7 +5154,7 @@
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>0</v>
       </c>
       <c r="E61">
@@ -3210,7 +5166,7 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I61">
@@ -3231,8 +5187,40 @@
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V61" s="1">
+        <v>4</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X61" t="b">
+        <f>V61=I61</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3242,7 +5230,7 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>0</v>
       </c>
       <c r="E62">
@@ -3254,7 +5242,7 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I62">
@@ -3275,8 +5263,37 @@
       <c r="N62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V62" s="1">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X62" t="b">
+        <f>V62=I62</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +5303,7 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63">
@@ -3298,7 +5315,7 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I63">
@@ -3319,8 +5336,37 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V63" s="1">
+        <v>7</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X63" t="b">
+        <f>V63=I63</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -3330,7 +5376,7 @@
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64">
@@ -3342,7 +5388,7 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I64">
@@ -3363,8 +5409,37 @@
       <c r="N64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="T64" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="1">
+        <v>9</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X64" t="b">
+        <f>V64=I64</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -3374,7 +5449,7 @@
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65">
@@ -3386,7 +5461,7 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I65">
@@ -3407,8 +5482,37 @@
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="1">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X65" t="b">
+        <f>V65=I65</f>
+        <v>0</v>
+      </c>
+      <c r="Y65" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -3418,7 +5522,7 @@
       <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="4">
         <v>0</v>
       </c>
       <c r="E66">
@@ -3430,7 +5534,7 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I66">
@@ -3451,8 +5555,37 @@
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V66" s="1">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X66" t="b">
+        <f>V66=I66</f>
+        <v>1</v>
+      </c>
+      <c r="Y66" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -3462,7 +5595,7 @@
       <c r="C67">
         <v>6</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
         <v>0</v>
       </c>
       <c r="E67">
@@ -3474,7 +5607,7 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I67">
@@ -3495,8 +5628,40 @@
       <c r="N67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P67" t="b">
+        <f t="shared" ref="P67:P97" si="4">O67=H67</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>48</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" t="b">
+        <f t="shared" ref="T67:T97" si="5">D67=S67</f>
+        <v>1</v>
+      </c>
+      <c r="V67" s="1">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W97" si="6">SUM(J67:N67)</f>
+        <v>3</v>
+      </c>
+      <c r="X67" t="b">
+        <f>V67=I67</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" t="b">
+        <f t="shared" ref="Y67:Y97" si="7">V67=W67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -3506,7 +5671,7 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <v>0</v>
       </c>
       <c r="E68">
@@ -3518,7 +5683,7 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I68">
@@ -3539,8 +5704,37 @@
       <c r="N68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="1">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X68" t="b">
+        <f>V68=I68</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -3550,7 +5744,7 @@
       <c r="C69">
         <v>2</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69">
@@ -3562,7 +5756,7 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I69">
@@ -3583,8 +5777,37 @@
       <c r="N69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P69" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="1">
+        <v>4</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X69" t="b">
+        <f>V69=I69</f>
+        <v>1</v>
+      </c>
+      <c r="Y69" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -3594,7 +5817,7 @@
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70">
@@ -3606,7 +5829,7 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I70">
@@ -3627,8 +5850,37 @@
       <c r="N70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P70" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1</v>
+      </c>
+      <c r="T70" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V70" s="1">
+        <v>9</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="X70" t="b">
+        <f>V70=I70</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -3638,7 +5890,7 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="4">
         <v>0</v>
       </c>
       <c r="E71">
@@ -3650,7 +5902,7 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I71">
@@ -3671,8 +5923,40 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>26</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0</v>
+      </c>
+      <c r="T71" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V71" s="1">
+        <v>6</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X71" t="b">
+        <f>V71=I71</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -3682,7 +5966,7 @@
       <c r="C72">
         <v>5</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72">
@@ -3694,7 +5978,7 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I72">
@@ -3715,8 +5999,43 @@
       <c r="N72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>27</v>
+      </c>
+      <c r="R72" t="s">
+        <v>28</v>
+      </c>
+      <c r="S72" s="2">
+        <v>1</v>
+      </c>
+      <c r="T72" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V72" s="1">
+        <v>4</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X72" t="b">
+        <f>V72=I72</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -3726,7 +6045,7 @@
       <c r="C73">
         <v>6</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73">
@@ -3738,7 +6057,7 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I73">
@@ -3759,8 +6078,37 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P73" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>1</v>
+      </c>
+      <c r="T73" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V73" s="1">
+        <v>6</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X73" t="b">
+        <f>V73=I73</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +6118,7 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74">
@@ -3782,7 +6130,7 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I74">
@@ -3803,8 +6151,40 @@
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>28</v>
+      </c>
+      <c r="S74" s="1">
+        <v>1</v>
+      </c>
+      <c r="T74" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V74" s="1">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X74" t="b">
+        <f>V74=I74</f>
+        <v>1</v>
+      </c>
+      <c r="Y74" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3814,7 +6194,7 @@
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="4">
         <v>0</v>
       </c>
       <c r="E75">
@@ -3826,7 +6206,7 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I75">
@@ -3847,8 +6227,46 @@
       <c r="N75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>56</v>
+      </c>
+      <c r="R75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S75" s="1">
+        <v>1</v>
+      </c>
+      <c r="T75" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
+        <v>4</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X75" t="b">
+        <f>V75=I75</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3858,7 +6276,7 @@
       <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="4">
         <v>0</v>
       </c>
       <c r="E76">
@@ -3870,7 +6288,7 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I76">
@@ -3891,8 +6309,40 @@
       <c r="N76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P76" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V76" s="1">
+        <v>4</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X76" t="b">
+        <f>V76=I76</f>
+        <v>0</v>
+      </c>
+      <c r="Y76" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +6352,7 @@
       <c r="C77">
         <v>4</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77">
@@ -3914,7 +6364,7 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I77">
@@ -3935,8 +6385,37 @@
       <c r="N77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S77" s="1">
+        <v>1</v>
+      </c>
+      <c r="T77" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V77" s="1">
+        <v>8</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X77" t="b">
+        <f>V77=I77</f>
+        <v>0</v>
+      </c>
+      <c r="Y77" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3946,7 +6425,7 @@
       <c r="C78">
         <v>5</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78">
@@ -3958,7 +6437,7 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I78">
@@ -3979,8 +6458,37 @@
       <c r="N78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S78" s="1">
+        <v>1</v>
+      </c>
+      <c r="T78" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V78" s="1">
+        <v>7</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X78" t="b">
+        <f>V78=I78</f>
+        <v>0</v>
+      </c>
+      <c r="Y78" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3990,7 +6498,7 @@
       <c r="C79">
         <v>6</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="4">
         <v>0</v>
       </c>
       <c r="E79">
@@ -4002,7 +6510,7 @@
       <c r="G79">
         <v>1</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I79">
@@ -4023,8 +6531,43 @@
       <c r="N79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P79" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>27</v>
+      </c>
+      <c r="S79" s="1">
+        <v>1</v>
+      </c>
+      <c r="T79" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79" s="1">
+        <v>7</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X79" t="b">
+        <f>V79=I79</f>
+        <v>0</v>
+      </c>
+      <c r="Y79" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4034,7 +6577,7 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
         <v>0</v>
       </c>
       <c r="E80">
@@ -4046,7 +6589,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I80">
@@ -4067,8 +6610,43 @@
       <c r="N80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>26</v>
+      </c>
+      <c r="S80" s="2">
+        <v>1</v>
+      </c>
+      <c r="T80" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X80" t="b">
+        <f>V80=I80</f>
+        <v>0</v>
+      </c>
+      <c r="Y80" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4078,7 +6656,7 @@
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
         <v>0</v>
       </c>
       <c r="E81">
@@ -4090,7 +6668,7 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I81">
@@ -4111,8 +6689,40 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P81" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>48</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0</v>
+      </c>
+      <c r="T81" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V81" s="1">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X81" t="b">
+        <f>V81=I81</f>
+        <v>1</v>
+      </c>
+      <c r="Y81" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4122,7 +6732,7 @@
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82">
@@ -4134,7 +6744,7 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I82">
@@ -4155,8 +6765,40 @@
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>26</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V82" s="1">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X82" t="b">
+        <f>V82=I82</f>
+        <v>1</v>
+      </c>
+      <c r="Y82" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +6808,7 @@
       <c r="C83">
         <v>4</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="4">
         <v>0</v>
       </c>
       <c r="E83">
@@ -4178,7 +6820,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I83">
@@ -4199,8 +6841,40 @@
       <c r="N83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>48</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X83" t="b">
+        <f>V83=I83</f>
+        <v>0</v>
+      </c>
+      <c r="Y83" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +6884,7 @@
       <c r="C84">
         <v>5</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="4">
         <v>0</v>
       </c>
       <c r="E84">
@@ -4222,7 +6896,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I84">
@@ -4243,8 +6917,43 @@
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>48</v>
+      </c>
+      <c r="S84" s="2">
+        <v>1</v>
+      </c>
+      <c r="T84" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <v>4</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X84" t="b">
+        <f>V84=I84</f>
+        <v>0</v>
+      </c>
+      <c r="Y84" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4254,7 +6963,7 @@
       <c r="C85">
         <v>6</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="4">
         <v>0</v>
       </c>
       <c r="E85">
@@ -4266,7 +6975,7 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I85">
@@ -4287,8 +6996,40 @@
       <c r="N85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P85" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>48</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0</v>
+      </c>
+      <c r="T85" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V85" s="1">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X85" t="b">
+        <f>V85=I85</f>
+        <v>0</v>
+      </c>
+      <c r="Y85" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4298,7 +7039,7 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86">
@@ -4310,7 +7051,7 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I86">
@@ -4331,8 +7072,37 @@
       <c r="N86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P86" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S86" s="1">
+        <v>1</v>
+      </c>
+      <c r="T86" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V86" s="1">
+        <v>10</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X86" t="b">
+        <f>V86=I86</f>
+        <v>0</v>
+      </c>
+      <c r="Y86" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -4342,7 +7112,7 @@
       <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87">
@@ -4354,7 +7124,7 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I87">
@@ -4375,8 +7145,37 @@
       <c r="N87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S87" s="1">
+        <v>1</v>
+      </c>
+      <c r="T87" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V87" s="1">
+        <v>11</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="X87" t="b">
+        <f>V87=I87</f>
+        <v>1</v>
+      </c>
+      <c r="Y87" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -4386,7 +7185,7 @@
       <c r="C88">
         <v>3</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88">
@@ -4398,7 +7197,7 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I88">
@@ -4419,8 +7218,37 @@
       <c r="N88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P88" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S88" s="1">
+        <v>1</v>
+      </c>
+      <c r="T88" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V88" s="1">
+        <v>7</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X88" t="b">
+        <f>V88=I88</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -4430,7 +7258,7 @@
       <c r="C89">
         <v>4</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89">
@@ -4442,7 +7270,7 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I89">
@@ -4463,8 +7291,40 @@
       <c r="N89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="1">
+        <v>1</v>
+      </c>
+      <c r="T89" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V89" s="1">
+        <v>10</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X89" t="b">
+        <f>V89=I89</f>
+        <v>0</v>
+      </c>
+      <c r="Y89" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -4474,7 +7334,7 @@
       <c r="C90">
         <v>5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="4">
         <v>1</v>
       </c>
       <c r="E90">
@@ -4486,7 +7346,7 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I90">
@@ -4507,8 +7367,40 @@
       <c r="N90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P90" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>27</v>
+      </c>
+      <c r="S90" s="1">
+        <v>1</v>
+      </c>
+      <c r="T90" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V90" s="1">
+        <v>9</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X90" t="b">
+        <f>V90=I90</f>
+        <v>0</v>
+      </c>
+      <c r="Y90" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -4518,7 +7410,7 @@
       <c r="C91">
         <v>6</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="4">
         <v>0</v>
       </c>
       <c r="E91">
@@ -4530,7 +7422,7 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I91">
@@ -4551,8 +7443,40 @@
       <c r="N91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P91" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S91" s="1">
+        <v>1</v>
+      </c>
+      <c r="T91" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91" s="1">
+        <v>7</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X91" t="b">
+        <f>V91=I91</f>
+        <v>0</v>
+      </c>
+      <c r="Y91" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -4562,7 +7486,7 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="4">
         <v>1</v>
       </c>
       <c r="E92">
@@ -4574,7 +7498,7 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I92">
@@ -4595,8 +7519,37 @@
       <c r="N92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
+        <v>1</v>
+      </c>
+      <c r="T92" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V92" s="1">
+        <v>11</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="X92" t="b">
+        <f>V92=I92</f>
+        <v>0</v>
+      </c>
+      <c r="Y92" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -4606,7 +7559,7 @@
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="4">
         <v>1</v>
       </c>
       <c r="E93">
@@ -4618,7 +7571,7 @@
       <c r="G93">
         <v>1</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I93">
@@ -4639,8 +7592,37 @@
       <c r="N93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P93" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1</v>
+      </c>
+      <c r="T93" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V93" s="1">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X93" t="b">
+        <f>V93=I93</f>
+        <v>0</v>
+      </c>
+      <c r="Y93" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -4650,7 +7632,7 @@
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="4">
         <v>1</v>
       </c>
       <c r="E94">
@@ -4662,7 +7644,7 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I94">
@@ -4683,8 +7665,43 @@
       <c r="N94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P94" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>28</v>
+      </c>
+      <c r="R94" t="s">
+        <v>26</v>
+      </c>
+      <c r="S94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V94" s="1">
+        <v>4</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X94" t="b">
+        <f>V94=I94</f>
+        <v>1</v>
+      </c>
+      <c r="Y94" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4694,7 +7711,7 @@
       <c r="C95">
         <v>4</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="4">
         <v>0</v>
       </c>
       <c r="E95">
@@ -4706,7 +7723,7 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I95">
@@ -4727,8 +7744,37 @@
       <c r="N95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P95" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V95" s="1">
+        <v>5</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X95" t="b">
+        <f>V95=I95</f>
+        <v>0</v>
+      </c>
+      <c r="Y95" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -4738,7 +7784,7 @@
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="4">
         <v>1</v>
       </c>
       <c r="E96">
@@ -4750,7 +7796,7 @@
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I96">
@@ -4771,8 +7817,43 @@
       <c r="N96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P96" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>26</v>
+      </c>
+      <c r="R96" t="s">
+        <v>27</v>
+      </c>
+      <c r="S96" s="2">
+        <v>1</v>
+      </c>
+      <c r="T96" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V96" s="1">
+        <v>8</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="X96" t="b">
+        <f>V96=I96</f>
+        <v>1</v>
+      </c>
+      <c r="Y96" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +7863,7 @@
       <c r="C97">
         <v>6</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="4">
         <v>0</v>
       </c>
       <c r="E97">
@@ -4794,7 +7875,7 @@
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I97">
@@ -4814,6 +7895,56 @@
       </c>
       <c r="N97">
         <v>0</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S97" s="2">
+        <v>1</v>
+      </c>
+      <c r="T97" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97" s="1">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X97" t="b">
+        <f>V97=I97</f>
+        <v>0</v>
+      </c>
+      <c r="Y97" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <f>COUNTIF(P2:P97,"=TRUE")/96</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T98">
+        <f>COUNTIF(T2:T97,"=TRUE")/96</f>
+        <v>0.78125</v>
+      </c>
+      <c r="X98">
+        <f>COUNTIF(X2:X97,"=TRUE")/96</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="Y98">
+        <f>COUNTIF(Y2:Y97,"=TRUE")/96</f>
+        <v>0.22916666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -4822,6 +7953,11 @@
       <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="T2:T97">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
